--- a/biology/Botanique/Jardin_botanique_de_la_forêt_d'Abetone/Jardin_botanique_de_la_forêt_d'Abetone.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_la_forêt_d'Abetone/Jardin_botanique_de_la_forêt_d'Abetone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_for%C3%AAt_d%27Abetone</t>
+          <t>Jardin_botanique_de_la_forêt_d'Abetone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin botanique de la forêt d'Abetone (en italien : Orto botanico forestale dell'Abetone) est un jardin botanique situé à Abetone Cutigliano en Toscane[1],[2].
-Il occupe une superficie de 1,4 ha à l'intérieur de la réserve naturelle d'Abetone dans la province de Pistoia[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin botanique de la forêt d'Abetone (en italien : Orto botanico forestale dell'Abetone) est un jardin botanique situé à Abetone Cutigliano en Toscane,.
+Il occupe une superficie de 1,4 ha à l'intérieur de la réserve naturelle d'Abetone dans la province de Pistoia. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_for%C3%AAt_d%27Abetone</t>
+          <t>Jardin_botanique_de_la_forêt_d'Abetone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est ouvert tous les jours pendant les mois les plus chauds. Le jardin a été inauguré en 1987 et est actuellement géré par un consortium formé de la Région Toscane, du Corps Forestier de l'État, de la Communauté de montagne de la Montagna pistoiese (it) et des Universités de Florence, Pise et Sienne.
 Il contient environ 300 espèces de plantes originaires du nord des Apennins, dont le bleuet, la gentiane, la saxifrage, le lys, la mousse et le lichen, l'orchidée, la primevère, ainsi que le sapin, le hêtre, le bouleau, l'épicéa et le saule. 
